--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>0.5077040687559999</v>
+        <v>3.026186274162666</v>
       </c>
       <c r="R2">
-        <v>4.569336618804</v>
+        <v>27.235676467464</v>
       </c>
       <c r="S2">
-        <v>0.009452780033298457</v>
+        <v>0.212563275973935</v>
       </c>
       <c r="T2">
-        <v>0.01317857038389622</v>
+        <v>0.2285531077292936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.067298836884</v>
+        <v>1.002212276388</v>
       </c>
       <c r="R3">
-        <v>0.6056895319559999</v>
+        <v>9.019910487492</v>
       </c>
       <c r="S3">
-        <v>0.001253015566962141</v>
+        <v>0.07039669914214831</v>
       </c>
       <c r="T3">
-        <v>0.001746888617227895</v>
+        <v>0.07569221112679414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.1533314296</v>
+        <v>2.764041966037333</v>
       </c>
       <c r="R4">
-        <v>1.3799828664</v>
+        <v>24.876377694336</v>
       </c>
       <c r="S4">
-        <v>0.002854828955283725</v>
+        <v>0.1941499174213589</v>
       </c>
       <c r="T4">
-        <v>0.003980052872135167</v>
+        <v>0.2087546251285593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>0.456858603308</v>
+        <v>2.746761842254</v>
       </c>
       <c r="R5">
-        <v>2.741151619848</v>
+        <v>16.480571053524</v>
       </c>
       <c r="S5">
-        <v>0.008506104538362431</v>
+        <v>0.1929361389596755</v>
       </c>
       <c r="T5">
-        <v>0.007905843357312859</v>
+        <v>0.1382996943709501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.1573639340333333</v>
+        <v>3.547884585834666</v>
       </c>
       <c r="R6">
-        <v>1.4162754063</v>
+        <v>31.930961272512</v>
       </c>
       <c r="S6">
-        <v>0.002929908868440616</v>
+        <v>0.2492080467026486</v>
       </c>
       <c r="T6">
-        <v>0.004084725351180431</v>
+        <v>0.2679544398441692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N7">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O7">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P7">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q7">
-        <v>7.560713885091999</v>
+        <v>0.197850575652</v>
       </c>
       <c r="R7">
-        <v>68.046424965828</v>
+        <v>1.780655180868</v>
       </c>
       <c r="S7">
-        <v>0.1407705189867763</v>
+        <v>0.01389728281863767</v>
       </c>
       <c r="T7">
-        <v>0.1962548780263421</v>
+        <v>0.01494269018314357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P8">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q8">
-        <v>1.002212276388</v>
+        <v>0.065524147506</v>
       </c>
       <c r="R8">
-        <v>9.019910487492</v>
+        <v>0.589717327554</v>
       </c>
       <c r="S8">
-        <v>0.01865987053950535</v>
+        <v>0.004602501692705129</v>
       </c>
       <c r="T8">
-        <v>0.02601461330878496</v>
+        <v>0.004948719671247821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N9">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O9">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P9">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q9">
-        <v>2.2834070872</v>
+        <v>0.180711709248</v>
       </c>
       <c r="R9">
-        <v>20.5506637848</v>
+        <v>1.626405383232</v>
       </c>
       <c r="S9">
-        <v>0.04251402785615604</v>
+        <v>0.01269342645975511</v>
       </c>
       <c r="T9">
-        <v>0.05927082894467552</v>
+        <v>0.01364827509275882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N10">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O10">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P10">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q10">
-        <v>6.803524726556</v>
+        <v>0.179581943223</v>
       </c>
       <c r="R10">
-        <v>40.821148359336</v>
+        <v>1.077491659338</v>
       </c>
       <c r="S10">
-        <v>0.126672655684682</v>
+        <v>0.01261407021873042</v>
       </c>
       <c r="T10">
-        <v>0.117733584037367</v>
+        <v>0.00904196624557068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N11">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O11">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P11">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q11">
-        <v>2.343459023233333</v>
+        <v>0.231958955616</v>
       </c>
       <c r="R11">
-        <v>21.0911312091</v>
+        <v>2.087630600544</v>
       </c>
       <c r="S11">
-        <v>0.04363211568887267</v>
+        <v>0.01629309997147228</v>
       </c>
       <c r="T11">
-        <v>0.06082960838806987</v>
+        <v>0.01751872996857971</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N12">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O12">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P12">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q12">
-        <v>0.08573539521566667</v>
+        <v>0.067965161304</v>
       </c>
       <c r="R12">
-        <v>0.7716185569409999</v>
+        <v>0.6116864517360001</v>
       </c>
       <c r="S12">
-        <v>0.001596279962907089</v>
+        <v>0.004773961689741838</v>
       </c>
       <c r="T12">
-        <v>0.002225449843270475</v>
+        <v>0.005133077552421992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.803997</v>
       </c>
       <c r="O13">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P13">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q13">
-        <v>0.011364676261</v>
+        <v>0.022508700012</v>
       </c>
       <c r="R13">
-        <v>0.102282086349</v>
+        <v>0.202578300108</v>
       </c>
       <c r="S13">
-        <v>0.0002115952805107635</v>
+        <v>0.001581040484293759</v>
       </c>
       <c r="T13">
-        <v>0.0002949950477307714</v>
+        <v>0.001699972464554394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N14">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O14">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P14">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q14">
-        <v>0.02589290006666667</v>
+        <v>0.06207765849600001</v>
       </c>
       <c r="R14">
-        <v>0.2330361006</v>
+        <v>0.5586989264640001</v>
       </c>
       <c r="S14">
-        <v>0.0004820916431772961</v>
+        <v>0.004360415803667624</v>
       </c>
       <c r="T14">
-        <v>0.000672106896460095</v>
+        <v>0.004688423145314926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N15">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O15">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P15">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q15">
-        <v>0.07714918064033334</v>
+        <v>0.061689563946</v>
       </c>
       <c r="R15">
-        <v>0.462895083842</v>
+        <v>0.370137383676</v>
       </c>
       <c r="S15">
-        <v>0.001436415973835271</v>
+        <v>0.004333155535639855</v>
       </c>
       <c r="T15">
-        <v>0.001335050566786226</v>
+        <v>0.003106074836327233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N16">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O16">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P16">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q16">
-        <v>0.02657386439722222</v>
+        <v>0.079681991232</v>
       </c>
       <c r="R16">
-        <v>0.239164779575</v>
+        <v>0.717137921088</v>
       </c>
       <c r="S16">
-        <v>0.0004947703007327423</v>
+        <v>0.005596967125590049</v>
       </c>
       <c r="T16">
-        <v>0.0006897828161767482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.021791</v>
-      </c>
-      <c r="N17">
-        <v>6.065372999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.3781620571349336</v>
-      </c>
-      <c r="P17">
-        <v>0.426545054769166</v>
-      </c>
-      <c r="Q17">
-        <v>11.634772362626</v>
-      </c>
-      <c r="R17">
-        <v>69.80863417575598</v>
-      </c>
-      <c r="S17">
-        <v>0.2166241136315574</v>
-      </c>
-      <c r="T17">
-        <v>0.2013373221624593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.267999</v>
-      </c>
-      <c r="N18">
-        <v>0.803997</v>
-      </c>
-      <c r="O18">
-        <v>0.05012736388187754</v>
-      </c>
-      <c r="P18">
-        <v>0.05654078395495961</v>
-      </c>
-      <c r="Q18">
-        <v>1.542250093314</v>
-      </c>
-      <c r="R18">
-        <v>9.253500559883999</v>
-      </c>
-      <c r="S18">
-        <v>0.02871466231135847</v>
-      </c>
-      <c r="T18">
-        <v>0.02668831793306872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6105999999999999</v>
-      </c>
-      <c r="N19">
-        <v>1.8318</v>
-      </c>
-      <c r="O19">
-        <v>0.1142085171447447</v>
-      </c>
-      <c r="P19">
-        <v>0.1288206399385756</v>
-      </c>
-      <c r="Q19">
-        <v>3.513811271599999</v>
-      </c>
-      <c r="R19">
-        <v>21.0828676296</v>
-      </c>
-      <c r="S19">
-        <v>0.06542253070838129</v>
-      </c>
-      <c r="T19">
-        <v>0.06080577513323467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.819313</v>
-      </c>
-      <c r="N20">
-        <v>3.638626</v>
-      </c>
-      <c r="O20">
-        <v>0.3402899442387109</v>
-      </c>
-      <c r="P20">
-        <v>0.2558849928033299</v>
-      </c>
-      <c r="Q20">
-        <v>10.469575050718</v>
-      </c>
-      <c r="R20">
-        <v>41.878300202872</v>
-      </c>
-      <c r="S20">
-        <v>0.1949296767288852</v>
-      </c>
-      <c r="T20">
-        <v>0.1207825495959936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.6266583333333333</v>
-      </c>
-      <c r="N21">
-        <v>1.879975</v>
-      </c>
-      <c r="O21">
-        <v>0.1172121175997333</v>
-      </c>
-      <c r="P21">
-        <v>0.1322085285339687</v>
-      </c>
-      <c r="Q21">
-        <v>3.606221937616666</v>
-      </c>
-      <c r="R21">
-        <v>21.6373316257</v>
-      </c>
-      <c r="S21">
-        <v>0.06714309540806264</v>
-      </c>
-      <c r="T21">
-        <v>0.06240492253854289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.021791</v>
-      </c>
-      <c r="N22">
-        <v>6.065372999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.3781620571349336</v>
-      </c>
-      <c r="P22">
-        <v>0.426545054769166</v>
-      </c>
-      <c r="Q22">
-        <v>0.5219684781913334</v>
-      </c>
-      <c r="R22">
-        <v>4.697716303721999</v>
-      </c>
-      <c r="S22">
-        <v>0.009718364520394455</v>
-      </c>
-      <c r="T22">
-        <v>0.01354883435319799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.267999</v>
-      </c>
-      <c r="N23">
-        <v>0.803997</v>
-      </c>
-      <c r="O23">
-        <v>0.05012736388187754</v>
-      </c>
-      <c r="P23">
-        <v>0.05654078395495961</v>
-      </c>
-      <c r="Q23">
-        <v>0.06918965916200001</v>
-      </c>
-      <c r="R23">
-        <v>0.622706932458</v>
-      </c>
-      <c r="S23">
-        <v>0.001288220183540828</v>
-      </c>
-      <c r="T23">
-        <v>0.001795969048147266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6105999999999999</v>
-      </c>
-      <c r="N24">
-        <v>1.8318</v>
-      </c>
-      <c r="O24">
-        <v>0.1142085171447447</v>
-      </c>
-      <c r="P24">
-        <v>0.1288206399385756</v>
-      </c>
-      <c r="Q24">
-        <v>0.1576394161333333</v>
-      </c>
-      <c r="R24">
-        <v>1.4187547452</v>
-      </c>
-      <c r="S24">
-        <v>0.00293503798174631</v>
-      </c>
-      <c r="T24">
-        <v>0.004091876092070196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.819313</v>
-      </c>
-      <c r="N25">
-        <v>3.638626</v>
-      </c>
-      <c r="O25">
-        <v>0.3402899442387109</v>
-      </c>
-      <c r="P25">
-        <v>0.2558849928033299</v>
-      </c>
-      <c r="Q25">
-        <v>0.4696944629606667</v>
-      </c>
-      <c r="R25">
-        <v>2.818166777764</v>
-      </c>
-      <c r="S25">
-        <v>0.008745091312945995</v>
-      </c>
-      <c r="T25">
-        <v>0.008127965245870186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.6266583333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.879975</v>
-      </c>
-      <c r="O26">
-        <v>0.1172121175997333</v>
-      </c>
-      <c r="P26">
-        <v>0.1322085285339687</v>
-      </c>
-      <c r="Q26">
-        <v>0.1617852174611111</v>
-      </c>
-      <c r="R26">
-        <v>1.45606695715</v>
-      </c>
-      <c r="S26">
-        <v>0.003012227333624588</v>
-      </c>
-      <c r="T26">
-        <v>0.004199489439998727</v>
+        <v>0.006017992640314579</v>
       </c>
     </row>
   </sheetData>
